--- a/data/open/OPN_FINAL_ASY_ModeOfTransportClassifications_31-01-20.xlsx
+++ b/data/open/OPN_FINAL_ASY_ModeOfTransportClassifications_31-01-20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hugopigott/Dropbox/2. Work/Repositories/vnso-RAP-tradeStats-materials/data/open/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{623A4AFA-7E0B-FA41-A331-855389B56246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68EB0B9-2AA3-B04B-AB65-BA80DA9B8FAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740" xr2:uid="{5D89E947-517A-A84B-A0A3-036CDE473836}"/>
+    <workbookView xWindow="11520" yWindow="460" windowWidth="22700" windowHeight="15740" xr2:uid="{5D89E947-517A-A84B-A0A3-036CDE473836}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Office</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>VSEAP</t>
+  </si>
+  <si>
+    <t>VPOST</t>
   </si>
 </sst>
 </file>
@@ -132,10 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B1CA66-52A0-4049-8FC3-6305DC2C34F5}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,18 +538,26 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
